--- a/bin/xlsx/npc表.xlsx
+++ b/bin/xlsx/npc表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>INT</t>
   </si>
@@ -44,10 +44,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>task_id#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>task_id#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id#3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[task]#3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +73,10 @@
   </si>
   <si>
     <t>杀羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -453,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -470,24 +462,24 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -495,20 +487,21 @@
         <v>80000001</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>